--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\W513032\source\repos\volume testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A08CA9-2804-42BB-B475-F722C2502C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098A4BAA-8CB6-44C3-BF1B-DAB0196F7C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1425" windowWidth="22455" windowHeight="14775" xr2:uid="{F0785584-2F8E-4703-86B6-C279EDBD0035}"/>
+    <workbookView xWindow="3510" yWindow="1425" windowWidth="22455" windowHeight="14775" xr2:uid="{F0785584-2F8E-4703-86B6-C279EDBD0035}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>What is the weather like today?</t>
   </si>
   <si>
-    <t>What is the capital of France?</t>
-  </si>
-  <si>
     <t>What is the meaning of life?</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
     <t>What are the different types of machine learning algorithms?</t>
   </si>
   <si>
-    <t>What are some tips for writing a compelling email?</t>
-  </si>
-  <si>
     <t>What are the causes of climate change?</t>
   </si>
   <si>
@@ -66,31 +60,16 @@
     <t>Can you summarize the plot of a popular movie?</t>
   </si>
   <si>
-    <t>Write a code snippet to solve a simple mathematical problem.</t>
-  </si>
-  <si>
-    <t>What are the best practices for web design?</t>
-  </si>
-  <si>
-    <t>What are some historical events that shaped the modern world?</t>
-  </si>
-  <si>
-    <t>What are some fun facts about animals?</t>
-  </si>
-  <si>
-    <t>Can you write a news article about a fictional event?</t>
-  </si>
-  <si>
-    <t>What are the best ways to manage stress?</t>
-  </si>
-  <si>
-    <t>What are some interesting travel destinations?</t>
-  </si>
-  <si>
     <t>question_id</t>
   </si>
   <si>
     <t>Question</t>
+  </si>
+  <si>
+    <t>What is the capital of El Salvador?</t>
+  </si>
+  <si>
+    <t>What are some tips for testing LLM?</t>
   </si>
 </sst>
 </file>
@@ -442,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609CDA6E-2B7E-4B6F-9A30-A3CC93987545}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,10 +435,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -475,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -483,7 +462,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -491,7 +470,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -499,7 +478,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -507,7 +486,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -515,7 +494,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -523,7 +502,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -531,7 +510,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -539,63 +518,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\W513032\source\repos\volume testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098A4BAA-8CB6-44C3-BF1B-DAB0196F7C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CD16F5-2813-4D4D-9A95-9F1B7FAF3A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="1425" windowWidth="22455" windowHeight="14775" xr2:uid="{F0785584-2F8E-4703-86B6-C279EDBD0035}"/>
+    <workbookView xWindow="1170" yWindow="825" windowWidth="22455" windowHeight="14775" xr2:uid="{F0785584-2F8E-4703-86B6-C279EDBD0035}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <t>Can you summarize the plot of a popular movie?</t>
   </si>
   <si>
-    <t>question_id</t>
-  </si>
-  <si>
     <t>Question</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>What are some tips for testing LLM?</t>
+  </si>
+  <si>
+    <t>question-id</t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,10 +435,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -454,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -486,7 +486,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
